--- a/js/xlsx/Rewards.xlsx
+++ b/js/xlsx/Rewards.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHW\Documents\UnityNetworkProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\UnityNetworkProject\js\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3A37E0-F73D-49F8-8295-02459972A508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="2025" windowWidth="22980" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25740" yWindow="2025" windowWidth="22980" windowHeight="13755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>ID</t>
   </si>
@@ -52,12 +51,36 @@
   </si>
   <si>
     <t>weapon_level_sum</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투력 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접속시간 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오브 레벨업 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 레벨업 보상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,26 +427,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="18.625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="5"/>
+    <col min="3" max="3" width="18.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" customWidth="1"/>
     <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -431,12 +454,14 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -448,13 +473,15 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4">
-        <v>5</v>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D2" s="4">
-        <v>100</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1000</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
@@ -463,13 +490,15 @@
       <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
         <v>500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="E3" s="4">
         <v>12</v>
       </c>
-      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
@@ -478,13 +507,15 @@
       <c r="B4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4">
+        <v>10000</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -493,13 +524,15 @@
       <c r="B5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="D5" s="4">
+      <c r="E5" s="4">
         <v>500</v>
       </c>
-      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -508,13 +541,15 @@
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="4">
+      <c r="E6" s="4">
         <v>25</v>
       </c>
-      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -818,5 +853,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>